--- a/Assets/Resources/Data/Test_data.xlsx
+++ b/Assets/Resources/Data/Test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metaedu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Metaedu\Documents\GitHub\METAEDU_TEST_ICT\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D603416-C33A-418B-AEED-993634EABD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE707D5-30D9-4C6E-A782-BC856374E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2450" windowWidth="19200" windowHeight="11170" xr2:uid="{F2C871C2-0966-4DC5-BD10-3D7EE6ADDF30}"/>
+    <workbookView xWindow="4420" yWindow="1400" windowWidth="19200" windowHeight="11170" xr2:uid="{F2C871C2-0966-4DC5-BD10-3D7EE6ADDF30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,22 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김일이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,17 +85,18 @@
     <t>2023.10.34</t>
   </si>
   <si>
-    <t>2023.01.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.01.02</t>
-  </si>
-  <si>
-    <t>2023.01.03</t>
-  </si>
-  <si>
-    <t>2023.01.04</t>
+    <t>RnD_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnD_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnD_003</t>
+  </si>
+  <si>
+    <t>RnD_004</t>
   </si>
 </sst>
 </file>
@@ -211,9 +196,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C32094D3-0E8A-439A-9BD8-FC9DAC1813AB}" name="표1" displayName="표1" ref="A1:G5" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:G5" xr:uid="{C32094D3-0E8A-439A-9BD8-FC9DAC1813AB}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C32094D3-0E8A-439A-9BD8-FC9DAC1813AB}" name="표1" displayName="표1" ref="A1:C5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C5" xr:uid="{C32094D3-0E8A-439A-9BD8-FC9DAC1813AB}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{21AF600B-756B-476F-93DC-0D24E59DD95E}" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/Test_data/DialogueData/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -222,18 +207,6 @@
     </tableColumn>
     <tableColumn id="3" xr3:uid="{011A7B52-CE03-4665-9C26-ED95BEDFAD93}" uniqueName="Birthdate" name="Birthdate">
       <xmlColumnPr mapId="1" xpath="/Test_data/DialogueData/@Birthdate" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{E729EF6D-51CB-4583-AA99-BBF595F46423}" uniqueName="Date" name="Date">
-      <xmlColumnPr mapId="1" xpath="/Test_data/DialogueData/@Date" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{1658A023-59E6-4364-B254-AA898DE4F9A4}" uniqueName="Session" name="Session">
-      <xmlColumnPr mapId="1" xpath="/Test_data/DialogueData/@Session" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{06A69CBD-8E9F-4B6D-908B-69B683CF9662}" uniqueName="Data_1" name="Data_1">
-      <xmlColumnPr mapId="1" xpath="/Test_data/DialogueData/@Data_1" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{071597BF-027B-4FE8-93C8-1EBA0E5FF768}" uniqueName="Data_2" name="Data_2">
-      <xmlColumnPr mapId="1" xpath="/Test_data/DialogueData/@Data_2" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -537,23 +510,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B648B440-6BD4-4936-95AE-EB0E2CFADB0F}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="8.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="7" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -563,109 +533,49 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100</v>
-      </c>
-      <c r="G2" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>100</v>
-      </c>
-      <c r="G5" s="1">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
